--- a/debitos.xlsx
+++ b/debitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01251F5C-6E5A-4ACB-BAC4-AB01EF18B548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E0EB01-A506-46C4-9AB9-10D43A998FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,16 +48,16 @@
     <t>DESPESA</t>
   </si>
   <si>
-    <t>VALOR</t>
-  </si>
-  <si>
-    <t>MODO</t>
-  </si>
-  <si>
     <t>BOLETO</t>
   </si>
   <si>
     <t>PIX</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>TIPO</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,10 +392,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -406,7 +406,7 @@
         <v>1307.81</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -417,7 +417,7 @@
         <v>155.41</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -428,7 +428,7 @@
         <v>136.13999999999999</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>59.9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>800</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,7 +461,7 @@
         <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
         <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/debitos.xlsx
+++ b/debitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E0EB01-A506-46C4-9AB9-10D43A998FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1522FD54-3C6F-40C3-8AE4-9820B47BDE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>CARRO</t>
   </si>
@@ -58,13 +58,26 @@
   </si>
   <si>
     <t>TIPO</t>
+  </si>
+  <si>
+    <t>VENCIMENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,14 +103,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -376,102 +394,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1307.81</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>155.41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>136.13999999999999</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>59.9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>800</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>210</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>110</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>
